--- a/Login/bin/Debug/netcoreapp3.1/Student lists/SQL-28.04.2020-05.05.2020.xlsx
+++ b/Login/bin/Debug/netcoreapp3.1/Student lists/SQL-28.04.2020-05.05.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
     <x:t>Student</x:t>
   </x:si>
@@ -28,10 +28,22 @@
     <x:t>03.06.2020 1:28</x:t>
   </x:si>
   <x:si>
+    <x:t>07.06.2020 6:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.06.2020 10:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.04.2020 9:01</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ivan Ivanov</x:t>
   </x:si>
   <x:si>
     <x:t>P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -95,13 +107,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
-  <x:autoFilter ref="A1:D2"/>
-  <x:tableColumns count="4">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G2" totalsRowShown="0">
+  <x:autoFilter ref="A1:G2"/>
+  <x:tableColumns count="7">
     <x:tableColumn id="1" name="Student"/>
     <x:tableColumn id="2" name="29.04.2020 16:30"/>
     <x:tableColumn id="3" name="03.06.2020 1:03"/>
     <x:tableColumn id="4" name="03.06.2020 1:28"/>
+    <x:tableColumn id="5" name="07.06.2020 6:04"/>
+    <x:tableColumn id="6" name="18.06.2020 10:30"/>
+    <x:tableColumn id="7" name="29.04.2020 9:01"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -395,7 +410,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D2"/>
+  <x:dimension ref="A1:G2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -403,10 +418,12 @@
   <x:cols>
     <x:col min="1" max="1" width="11.265425" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="19.395425" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="18.325425" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="18.325425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.395425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="18.325425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -419,19 +436,37 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
